--- a/public/assets/employees.xlsx
+++ b/public/assets/employees.xlsx
@@ -27,7 +27,7 @@
     <t>Водитель</t>
   </si>
   <si>
-    <t xml:space="preserve">Петров Петр Петровоич</t>
+    <t xml:space="preserve">Петров Петр Петрович</t>
   </si>
   <si>
     <t xml:space="preserve">Системный администратор</t>
